--- a/Design.xlsx
+++ b/Design.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Process (Old)" sheetId="2" r:id="rId3"/>
     <sheet name="Parser flow" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -878,14 +878,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -894,8 +894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3552824" y="1485900"/>
-          <a:ext cx="1285875" cy="571500"/>
+          <a:off x="3566431" y="1730826"/>
+          <a:ext cx="1291318" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -932,13 +932,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
+      <xdr:colOff>538161</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -952,8 +952,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4186238" y="2057400"/>
-          <a:ext cx="9524" cy="504824"/>
+          <a:off x="4202566" y="2302326"/>
+          <a:ext cx="9524" cy="259898"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1032,15 +1032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>96931</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1049,8 +1049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="771524"/>
-          <a:ext cx="1495425" cy="209551"/>
+          <a:off x="430306" y="177612"/>
+          <a:ext cx="1481978" cy="209551"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1086,16 +1086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4482</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>72839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1104,8 +1104,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="1019175"/>
-          <a:ext cx="1504950" cy="219076"/>
+          <a:off x="2424953" y="806263"/>
+          <a:ext cx="1491503" cy="219076"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1141,16 +1141,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>588869</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>284069</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>3362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1159,8 +1159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="1295400"/>
-          <a:ext cx="1524000" cy="209550"/>
+          <a:off x="2404222" y="1127312"/>
+          <a:ext cx="1510553" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1198,14 +1198,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1214,8 +1214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="1581150"/>
-          <a:ext cx="1524000" cy="209550"/>
+          <a:off x="400050" y="796738"/>
+          <a:ext cx="1510553" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1242,7 +1242,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>lnkr_db_api.php</a:t>
+            <a:t>xml</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1297,7 +1297,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>getSourceList</a:t>
+            <a:t>lnkr_data_source.xml</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3417,7 +3417,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>hoverLinkStart()</a:t>
+            <a:t>hoverWindowStart()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3577,7 +3577,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>hoverLinkStop()</a:t>
+            <a:t>hoverWindowStop()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5216,16 +5216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>84364</xdr:colOff>
+      <xdr:colOff>587508</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>14968</xdr:rowOff>
+      <xdr:rowOff>109657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263658</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5234,8 +5234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="408214" y="176892"/>
-          <a:ext cx="1504950" cy="219076"/>
+          <a:off x="2402861" y="490657"/>
+          <a:ext cx="1491503" cy="219076"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5902,6 +5902,63 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301336</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rounded Rectangle 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2424545" y="190500"/>
+          <a:ext cx="1513609" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>lnkr.parse.js</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12554,8 +12611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UI HTML" sheetId="1" r:id="rId1"/>
     <sheet name="Process" sheetId="4" r:id="rId2"/>
     <sheet name="Process (Old)" sheetId="2" r:id="rId3"/>
     <sheet name="Parser flow" sheetId="3" r:id="rId4"/>
+    <sheet name="GA Events" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
   <si>
     <t>Markup</t>
   </si>
@@ -254,6 +255,129 @@
   </si>
   <si>
     <t>apply weighting to the counts</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>links section - open</t>
+  </si>
+  <si>
+    <t>links section - close</t>
+  </si>
+  <si>
+    <t>windowUI</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>metaData section - open</t>
+  </si>
+  <si>
+    <t>metaData section - close</t>
+  </si>
+  <si>
+    <t>summary section - open</t>
+  </si>
+  <si>
+    <t>summary section - close</t>
+  </si>
+  <si>
+    <t>metaData</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>window - click link</t>
+  </si>
+  <si>
+    <t>window - close</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>header - display image</t>
+  </si>
+  <si>
+    <t>header - display title</t>
+  </si>
+  <si>
+    <t>header - display title_image</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_image</t>
+  </si>
+  <si>
+    <t>about window</t>
+  </si>
+  <si>
+    <t>showWindow</t>
+  </si>
+  <si>
+    <t>#windowAbout</t>
+  </si>
+  <si>
+    <t>header - display Details on</t>
+  </si>
+  <si>
+    <t>header - display Details off</t>
+  </si>
+  <si>
+    <t>displayDetails</t>
+  </si>
+  <si>
+    <t>arrange - grid</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>arrange - chrono</t>
+  </si>
+  <si>
+    <t>chrono</t>
   </si>
 </sst>
 </file>
@@ -12611,7 +12735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -12783,4 +12907,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>